--- a/log_history/Y1_B2223_Anatomy_scanner1755157820768_5edfa2692bdacc5e6ee805c626c50cb44cebb065f092d9a1067d89f74dacd326.xlsx
+++ b/log_history/Y1_B2223_Anatomy_scanner1755157820768_5edfa2692bdacc5e6ee805c626c50cb44cebb065f092d9a1067d89f74dacd326.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
